--- a/exports/icecekler-kategorili.xlsx
+++ b/exports/icecekler-kategorili.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -522,32 +522,32 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Caylar</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Fincan Çay</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Kategori: Frozen</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Frozen</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Frozen Ananas</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>140</v>
-      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -557,11 +557,11 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Frozen Carkifelek</t>
+          <t>Frozen Ananas</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -572,11 +572,11 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Frozen Cilek</t>
+          <t>Frozen Carkifelek</t>
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -587,11 +587,11 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Frozen Mango</t>
+          <t>Frozen Cilek</t>
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -602,36 +602,36 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
+          <t>Frozen Mango</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Frozen</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
           <t>Frozen Mango-Ananas</t>
         </is>
       </c>
-      <c r="C11" s="4" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="C12" s="4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Kategori: Kokteyl</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>Kokteyl</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Cremore Kokteyl</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>140</v>
-      </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>Cremore Mojito</t>
+          <t>Cremore Kokteyl</t>
         </is>
       </c>
       <c r="C15" s="4" t="n">
@@ -656,11 +656,11 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Klasik Mojito</t>
+          <t>Cremore Mojito</t>
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
@@ -671,36 +671,36 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
+          <t>Klasik Mojito</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Kokteyl</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
           <t>Ocean Prime</t>
         </is>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C18" s="4" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Kategori: Mesrubatlar</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>Mesrubatlar</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Gazoz</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>50</v>
-      </c>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -710,11 +710,11 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>Kola</t>
+          <t>Ayran</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -725,11 +725,11 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>Soda</t>
+          <t>Cappy Vişne</t>
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -740,199 +740,220 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Soguk Cay</t>
+          <t>Cappy Şeftali</t>
         </is>
       </c>
       <c r="C23" s="4" t="n">
         <v>80</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Mesrubatlar</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Coca Cola Zero</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Kategori: Milkshake</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Mesrubatlar</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Elmalı Soda</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Milkshake</t>
+          <t>Mesrubatlar</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Milkshake Cilek</t>
+          <t>Fanta</t>
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>145</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Milkshake</t>
+          <t>Mesrubatlar</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Milkshake Karamel</t>
+          <t>Karpuz Çilek Soda</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>145</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>Mesrubatlar</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>Kola</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Kategori: Sicak Icecekler</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>Mesrubatlar</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Limonlu Soda</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>Sicak Icecekler</t>
+          <t>Mesrubatlar</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>Sahlep</t>
+          <t>Soda</t>
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>Sicak Icecekler</t>
+          <t>Mesrubatlar</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>Sicak Cikolata</t>
+          <t>Soguk Cay</t>
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>100</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>Mesrubatlar</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Sprite</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Kategori: Sicak Kahveler</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>Sicak Kahveler</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Americano</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="n">
-        <v>90</v>
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>Mesrubatlar</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>Su</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
-        <is>
-          <t>Sicak Kahveler</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Cafe Bonbon</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>140</v>
-      </c>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Kategori: Milkshake</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Sicak Kahveler</t>
+          <t>Milkshake</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>Cafe Latte</t>
+          <t>Milkshake Cilek</t>
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>Sicak Kahveler</t>
+          <t>Milkshake</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>Cappuchino</t>
+          <t>Milkshake Karamel</t>
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
-        <is>
-          <t>Sicak Kahveler</t>
-        </is>
-      </c>
-      <c r="B38" s="4" t="inlineStr">
-        <is>
-          <t>Caramel Mocha</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>Sicak Kahveler</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Cookie Latte</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>140</v>
-      </c>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Kategori: Sicak Icecekler</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Sicak Kahveler</t>
+          <t>Sicak Icecekler</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>Cortudo</t>
+          <t>Sahlep</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
@@ -942,47 +963,26 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Sicak Kahveler</t>
+          <t>Sicak Icecekler</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>Espresso Double</t>
+          <t>Sicak Cikolata</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>Sicak Kahveler</t>
-        </is>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t>Espresso Single</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
-        <is>
-          <t>Sicak Kahveler</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Filtre Kahve</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>80</v>
-      </c>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Kategori: Sicak Kahveler</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n"/>
+      <c r="C43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -992,11 +992,11 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>Findik Latte</t>
+          <t>Americano</t>
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -1007,11 +1007,11 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Flat White</t>
+          <t>Cafe Bonbon</t>
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
@@ -1022,11 +1022,11 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>Karamelize Biskuvili Latte</t>
+          <t>Cafe Latte</t>
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>Mocha</t>
+          <t>Cappuchino</t>
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>Turk Kahvesi</t>
+          <t>Caramel Mocha</t>
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>Vanilya Latte</t>
+          <t>Cookie Latte</t>
         </is>
       </c>
       <c r="C49" s="4" t="n">
@@ -1082,11 +1082,11 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>White Chocolate Mocha</t>
+          <t>Cortudo</t>
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -1097,61 +1097,211 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Espresso Double</t>
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>140</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>Sicak Kahveler</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Espresso Single</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Kategori: Sikma Meyve Sulari</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="n"/>
-      <c r="C53" s="3" t="n"/>
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>Sicak Kahveler</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Filtre Kahve</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Sikma Meyve Sulari</t>
+          <t>Sicak Kahveler</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>Atom</t>
+          <t>Findik Latte</t>
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Sikma Meyve Sulari</t>
+          <t>Sicak Kahveler</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>Taze Sikilmis Portakal Suyu</t>
+          <t>Flat White</t>
         </is>
       </c>
       <c r="C55" s="4" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>Sicak Kahveler</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>Karamelize Biskuvili Latte</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>Sicak Kahveler</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>Mocha</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>Sicak Kahveler</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>Turk Kahvesi</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>Sicak Kahveler</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>Vanilya Latte</t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>Sicak Kahveler</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>White Chocolate Mocha</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="inlineStr">
+        <is>
+          <t>Sicak Kahveler</t>
+        </is>
+      </c>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>Zebra</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Kategori: Sıkma Meyve Suları</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n"/>
+      <c r="C63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>Sıkma Meyve Suları</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>Atom</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>Sıkma Meyve Suları</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>Taze Sıkılmıs Portakal Suyu</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="n">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
